--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Coding/RealTimeGrapher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E812D-9F1A-E14A-9CB7-FB73C66DE941}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135928B9-F8A6-594F-BFD0-E5F31384C531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21580" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,10 +339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1684,7 +1684,47 @@
         <v>3000</v>
       </c>
       <c r="B167">
-        <v>3.5</v>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>3100</v>
+      </c>
+      <c r="B168">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>3200</v>
+      </c>
+      <c r="B169">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>3300</v>
+      </c>
+      <c r="B170">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>3400</v>
+      </c>
+      <c r="B171">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>3500</v>
+      </c>
+      <c r="B172">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Coding/RealTimeGrapher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135928B9-F8A6-594F-BFD0-E5F31384C531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A49F670-5790-BF41-80C7-193E196582BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21580" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -339,1392 +339,915 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B172"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B1">
-        <v>2.2799999999999998</v>
+        <f ca="1">RAND() * 10</f>
+        <v>8.611802321966529</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="B2">
-        <v>2.31</v>
+        <f t="shared" ref="B2:B65" ca="1" si="0">RAND() * 10</f>
+        <v>7.3164821565435512</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="B3">
-        <v>2.2200000000000002</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6243070000700133</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>72</v>
+        <v>400</v>
       </c>
       <c r="B4">
-        <v>2.21</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.0237254039609143</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="B5">
-        <v>2.37</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9763250781218744</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>108</v>
+        <v>600</v>
       </c>
       <c r="B6">
-        <v>2.2599999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1068188094878755</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>126</v>
+        <v>700</v>
       </c>
       <c r="B7">
-        <v>2.31</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.3738048749722109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>144</v>
+        <v>800</v>
       </c>
       <c r="B8">
-        <v>2.2599999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2119643193953706</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>162</v>
+        <v>900</v>
       </c>
       <c r="B9">
-        <v>2.36</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1156280954035971</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="B10">
-        <v>2.2200000000000002</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3405367835234969</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>198</v>
+        <v>1100</v>
       </c>
       <c r="B11">
-        <v>2.31</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3351182011638105</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>216</v>
+        <v>1200</v>
       </c>
       <c r="B12">
-        <v>2.34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.1255303719297505</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>234</v>
+        <v>1300</v>
       </c>
       <c r="B13">
-        <v>2.2999999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56259911383476635</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>252</v>
+        <v>1400</v>
       </c>
       <c r="B14">
-        <v>2.29</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0147652757309746</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>270</v>
+        <v>1500</v>
       </c>
       <c r="B15">
-        <v>2.25</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0280188020979466</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>288</v>
+        <v>1600</v>
       </c>
       <c r="B16">
-        <v>2.2599999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.2630525945074718</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>306</v>
+        <v>1700</v>
       </c>
       <c r="B17">
-        <v>2.2400000000000002</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7578649719845281</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>324</v>
+        <v>1800</v>
       </c>
       <c r="B18">
-        <v>2.29</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9847689065138741</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>342</v>
+        <v>1900</v>
       </c>
       <c r="B19">
-        <v>2.3199999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.9154804977478541</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>360</v>
+        <v>2000</v>
       </c>
       <c r="B20">
-        <v>2.35</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.18279555225606</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>378</v>
+        <v>2100</v>
       </c>
       <c r="B21">
-        <v>2.3199999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7592193506959872</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>396</v>
+        <v>2200</v>
       </c>
       <c r="B22">
-        <v>2.2799999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.1196814472899081</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>414</v>
+        <v>2300</v>
       </c>
       <c r="B23">
-        <v>0.7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.2991891212907252</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>432</v>
+        <v>2400</v>
       </c>
       <c r="B24">
-        <v>2.17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.7232912099803928</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>450</v>
+        <v>2500</v>
       </c>
       <c r="B25">
-        <v>2.33</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6386856612541276</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>468</v>
+        <v>2600</v>
       </c>
       <c r="B26">
-        <v>2.19</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6859919072111198</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>486</v>
+        <v>2700</v>
       </c>
       <c r="B27">
-        <v>2.2599999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3692611334428015</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>504</v>
+        <v>2800</v>
       </c>
       <c r="B28">
-        <v>2.25</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.0667134807668059</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>522</v>
+        <v>2900</v>
       </c>
       <c r="B29">
-        <v>2.2999999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8893666023108526</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>540</v>
+        <v>3000</v>
       </c>
       <c r="B30">
-        <v>2.27</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.628135665871933</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>558</v>
+        <v>3100</v>
       </c>
       <c r="B31">
-        <v>2.25</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.61354427188936</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>576</v>
+        <v>3200</v>
       </c>
       <c r="B32">
-        <v>2.27</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5176265549087526</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>594</v>
+        <v>3300</v>
       </c>
       <c r="B33">
-        <v>2.31</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.137519319672323</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>612</v>
+        <v>3400</v>
       </c>
       <c r="B34">
-        <v>1.99</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.575794291127278</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>630</v>
+        <v>3500</v>
       </c>
       <c r="B35">
-        <v>2.17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3493386015833426</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>648</v>
+        <v>3600</v>
       </c>
       <c r="B36">
-        <v>2.21</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4609224902662099</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>666</v>
+        <v>3700</v>
       </c>
       <c r="B37">
-        <v>2.17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9402283093048762</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>684</v>
+        <v>3800</v>
       </c>
       <c r="B38">
-        <v>2.2599999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5114827003623503</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>702</v>
+        <v>3900</v>
       </c>
       <c r="B39">
-        <v>2.3199999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.2726845228369363</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>720</v>
+        <v>4000</v>
       </c>
       <c r="B40">
-        <v>2.2599999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.2132239501646236</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>738</v>
+        <v>4100</v>
       </c>
       <c r="B41">
-        <v>2.27</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6038977687017508</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>756</v>
+        <v>4200</v>
       </c>
       <c r="B42">
-        <v>2.2799999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5782282196821642</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>774</v>
+        <v>4300</v>
       </c>
       <c r="B43">
-        <v>2.2999999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1083372704532266</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>792</v>
+        <v>4400</v>
       </c>
       <c r="B44">
-        <v>2.2999999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0856317822013928</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>810</v>
+        <v>4500</v>
       </c>
       <c r="B45">
-        <v>2.2799999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6121364597886698</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>828</v>
+        <v>4600</v>
       </c>
       <c r="B46">
-        <v>2.39</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9673407920848307</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>846</v>
+        <v>4700</v>
       </c>
       <c r="B47">
-        <v>2.31</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5371387792913884</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>864</v>
+        <v>4800</v>
       </c>
       <c r="B48">
-        <v>2.2400000000000002</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.7215123224842408</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>882</v>
+        <v>4900</v>
       </c>
       <c r="B49">
-        <v>2.2799999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9340684224283911</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>900</v>
+        <v>5000</v>
       </c>
       <c r="B50">
-        <v>2.19</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.9410065102932492</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>918</v>
+        <v>5100</v>
       </c>
       <c r="B51">
-        <v>2.39</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.807538863032204E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>936</v>
+        <v>5200</v>
       </c>
       <c r="B52">
-        <v>2.35</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9383342936352417</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>954</v>
+        <v>5300</v>
       </c>
       <c r="B53">
-        <v>2.25</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.678932467527515</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>972</v>
+        <v>5400</v>
       </c>
       <c r="B54">
-        <v>2.1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9543655033577103</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>990</v>
+        <v>5500</v>
       </c>
       <c r="B55">
-        <v>2.35</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9848214625986849</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1008</v>
+        <v>5600</v>
       </c>
       <c r="B56">
-        <v>2.2200000000000002</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2661947272950191</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1026</v>
+        <v>5700</v>
       </c>
       <c r="B57">
-        <v>2.15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1123658640530563</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1044</v>
+        <v>5800</v>
       </c>
       <c r="B58">
-        <v>2.09</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0263833047699666</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1062</v>
+        <v>5900</v>
       </c>
       <c r="B59">
-        <v>2.38</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59505911407231937</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1080</v>
+        <v>6000</v>
       </c>
       <c r="B60">
-        <v>2.3199999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6185205743049613</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1098</v>
+        <v>6100</v>
       </c>
       <c r="B61">
-        <v>2.23</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6336309754137686</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1116</v>
+        <v>6200</v>
       </c>
       <c r="B62">
-        <v>2.2799999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9930771697320573</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1134</v>
+        <v>6300</v>
       </c>
       <c r="B63">
-        <v>2.2799999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.9644775485456112</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1152</v>
+        <v>6400</v>
       </c>
       <c r="B64">
-        <v>2.2999999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6198353593383281</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1170</v>
+        <v>6500</v>
       </c>
       <c r="B65">
-        <v>2.27</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.0808293081122002</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1188</v>
+        <v>6600</v>
       </c>
       <c r="B66">
-        <v>2.2200000000000002</v>
+        <f t="shared" ref="B66:B129" ca="1" si="1">RAND() * 10</f>
+        <v>8.6557253226450452</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1206</v>
+        <v>6700</v>
       </c>
       <c r="B67">
-        <v>2.2799999999999998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.34751054989499375</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1224</v>
+        <v>6800</v>
       </c>
       <c r="B68">
-        <v>2.34</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6400519160205729</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1242</v>
+        <v>6900</v>
       </c>
       <c r="B69">
-        <v>2.23</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5201252551486704</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1260</v>
+        <v>7000</v>
       </c>
       <c r="B70">
-        <v>2.2799999999999998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3093817842021833</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1278</v>
+        <v>7100</v>
       </c>
       <c r="B71">
-        <v>2.3199999999999998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5552286691936357</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1296</v>
+        <v>7200</v>
       </c>
       <c r="B72">
-        <v>2.29</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.8891599381095601</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1314</v>
+        <v>7300</v>
       </c>
       <c r="B73">
-        <v>2.25</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.5682938133745328</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1332</v>
+        <v>7400</v>
       </c>
       <c r="B74">
-        <v>2.35</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.7077365320453222</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1350</v>
+        <v>7500</v>
       </c>
       <c r="B75">
-        <v>2.25</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.0202351006275698</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1368</v>
+        <v>7600</v>
       </c>
       <c r="B76">
-        <v>2.29</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.1721271807979763</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1386</v>
+        <v>7700</v>
       </c>
       <c r="B77">
-        <v>2.25</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3299293087563058</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1404</v>
+        <v>7800</v>
       </c>
       <c r="B78">
-        <v>2.27</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.92124584149892885</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1422</v>
+        <v>7900</v>
       </c>
       <c r="B79">
-        <v>2.25</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9.0843545323410062</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1440</v>
+        <v>8000</v>
       </c>
       <c r="B80">
-        <v>2.35</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4546093270031442</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1458</v>
+        <v>8100</v>
       </c>
       <c r="B81">
-        <v>2.27</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.5790662912390552E-3</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>1476</v>
+        <v>8200</v>
       </c>
       <c r="B82">
-        <v>2.2999999999999998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9.1292409642586119</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1494</v>
+        <v>8300</v>
       </c>
       <c r="B83">
-        <v>2.34</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.94350389723589001</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1512</v>
+        <v>8400</v>
       </c>
       <c r="B84">
-        <v>2.23</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7261799131878584</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1530</v>
+        <v>8500</v>
       </c>
       <c r="B85">
-        <v>2.25</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97032516802030289</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1548</v>
+        <v>8600</v>
       </c>
       <c r="B86">
-        <v>2.36</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1307765036508399</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1566</v>
+        <v>8700</v>
       </c>
       <c r="B87">
-        <v>1.82</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1160611534502269</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1584</v>
+        <v>8800</v>
       </c>
       <c r="B88">
-        <v>1.72</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1152871318458075</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>1602</v>
+        <v>8900</v>
       </c>
       <c r="B89">
-        <v>2.37</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.248994332598345</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1620</v>
+        <v>9000</v>
       </c>
       <c r="B90">
-        <v>1.99</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5501286445900195</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1638</v>
+        <v>9100</v>
       </c>
       <c r="B91">
-        <v>1.99</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.7299096575425841</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1656</v>
+        <v>9200</v>
       </c>
       <c r="B92">
-        <v>3.32</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.7879743653538736</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1674</v>
+        <v>9300</v>
       </c>
       <c r="B93">
-        <v>2.58</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.8960214611345041</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1692</v>
+        <v>9400</v>
       </c>
       <c r="B94">
-        <v>2.56</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4348627951060697</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1710</v>
+        <v>9500</v>
       </c>
       <c r="B95">
-        <v>2.2000000000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.2209319913403771</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1728</v>
+        <v>9600</v>
       </c>
       <c r="B96">
-        <v>2.2799999999999998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.4051317820621554</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1746</v>
+        <v>9700</v>
       </c>
       <c r="B97">
-        <v>2.23</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.5798108604008325</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1764</v>
+        <v>9800</v>
       </c>
       <c r="B98">
-        <v>2.0499999999999998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.9432584626290428</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1782</v>
+        <v>9900</v>
       </c>
       <c r="B99">
-        <v>2.2000000000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2849150637879942</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1800</v>
+        <v>10000</v>
       </c>
       <c r="B100">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>1818</v>
-      </c>
-      <c r="B101">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>1836</v>
-      </c>
-      <c r="B102">
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>1854</v>
-      </c>
-      <c r="B103">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>1872</v>
-      </c>
-      <c r="B104">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>1890</v>
-      </c>
-      <c r="B105">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>1908</v>
-      </c>
-      <c r="B106">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>1926</v>
-      </c>
-      <c r="B107">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>1944</v>
-      </c>
-      <c r="B108">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>1962</v>
-      </c>
-      <c r="B109">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>1980</v>
-      </c>
-      <c r="B110">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>1998</v>
-      </c>
-      <c r="B111">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>2016</v>
-      </c>
-      <c r="B112">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>2034</v>
-      </c>
-      <c r="B113">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>2052</v>
-      </c>
-      <c r="B114">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>2070</v>
-      </c>
-      <c r="B115">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>2088</v>
-      </c>
-      <c r="B116">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>2106</v>
-      </c>
-      <c r="B117">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>2124</v>
-      </c>
-      <c r="B118">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>2142</v>
-      </c>
-      <c r="B119">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>2160</v>
-      </c>
-      <c r="B120">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>2178</v>
-      </c>
-      <c r="B121">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>2196</v>
-      </c>
-      <c r="B122">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>2214</v>
-      </c>
-      <c r="B123">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>2232</v>
-      </c>
-      <c r="B124">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>2250</v>
-      </c>
-      <c r="B125">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>2268</v>
-      </c>
-      <c r="B126">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>2286</v>
-      </c>
-      <c r="B127">
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>2304</v>
-      </c>
-      <c r="B128">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>2322</v>
-      </c>
-      <c r="B129">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>2340</v>
-      </c>
-      <c r="B130">
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>2358</v>
-      </c>
-      <c r="B131">
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>2376</v>
-      </c>
-      <c r="B132">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>2394</v>
-      </c>
-      <c r="B133">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>2412</v>
-      </c>
-      <c r="B134">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>2430</v>
-      </c>
-      <c r="B135">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>2448</v>
-      </c>
-      <c r="B136">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>2466</v>
-      </c>
-      <c r="B137">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>2484</v>
-      </c>
-      <c r="B138">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>2502</v>
-      </c>
-      <c r="B139">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>2520</v>
-      </c>
-      <c r="B140">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>2538</v>
-      </c>
-      <c r="B141">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>2556</v>
-      </c>
-      <c r="B142">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>2574</v>
-      </c>
-      <c r="B143">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>2592</v>
-      </c>
-      <c r="B144">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>2610</v>
-      </c>
-      <c r="B145">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>2628</v>
-      </c>
-      <c r="B146">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>2646</v>
-      </c>
-      <c r="B147">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>2664</v>
-      </c>
-      <c r="B148">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>2682</v>
-      </c>
-      <c r="B149">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>2700</v>
-      </c>
-      <c r="B150">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>2718</v>
-      </c>
-      <c r="B151">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>2736</v>
-      </c>
-      <c r="B152">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>2754</v>
-      </c>
-      <c r="B153">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>2772</v>
-      </c>
-      <c r="B154">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>2790</v>
-      </c>
-      <c r="B155">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>2808</v>
-      </c>
-      <c r="B156">
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>2826</v>
-      </c>
-      <c r="B157">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>2844</v>
-      </c>
-      <c r="B158">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>2862</v>
-      </c>
-      <c r="B159">
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>2880</v>
-      </c>
-      <c r="B160">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>2898</v>
-      </c>
-      <c r="B161">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>2916</v>
-      </c>
-      <c r="B162">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>2934</v>
-      </c>
-      <c r="B163">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>2952</v>
-      </c>
-      <c r="B164">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>2970</v>
-      </c>
-      <c r="B165">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>2988</v>
-      </c>
-      <c r="B166">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>3000</v>
-      </c>
-      <c r="B167">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>3100</v>
-      </c>
-      <c r="B168">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>3200</v>
-      </c>
-      <c r="B169">
         <v>2.1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>3300</v>
-      </c>
-      <c r="B170">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>3400</v>
-      </c>
-      <c r="B171">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>3500</v>
-      </c>
-      <c r="B172">
-        <v>2.4</v>
       </c>
     </row>
   </sheetData>
